--- a/data-raw/summerby.multi.uniformity.xlsx
+++ b/data-raw/summerby.multi.uniformity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-unused\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{18E5DB19-0D19-4B73-9987-1183CBD556EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8542B734-D1EA-41D0-9535-BB2650791D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="18045" windowHeight="15600" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="41985" yWindow="3975" windowWidth="11385" windowHeight="12195" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="r222" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,9 +619,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -659,7 +659,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -765,7 +765,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -907,14 +907,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1521,14 +1521,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2135,14 +2132,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2749,14 +2743,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3363,14 +3354,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3807,14 +3795,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4251,14 +4236,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4695,14 +4677,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5139,14 +5118,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -29278,14 +29254,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29892,14 +29865,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30506,14 +30476,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31120,14 +31087,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31734,14 +31698,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32348,14 +32309,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32962,14 +32920,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33576,14 +33531,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34190,8 +34142,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>